--- a/doc/网站权限文档.xlsx
+++ b/doc/网站权限文档.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="117">
   <si>
     <t>权限ID</t>
   </si>
@@ -363,6 +363,21 @@
   </si>
   <si>
     <t>发布留言消息</t>
+  </si>
+  <si>
+    <t>导航</t>
+  </si>
+  <si>
+    <t>添加、删除、调整一级导航</t>
+  </si>
+  <si>
+    <t>添加、删除、调整二级导航</t>
+  </si>
+  <si>
+    <t>二级导航栏必须在一级导航栏里面</t>
+  </si>
+  <si>
+    <t>一级导航栏会在前端页面上面显示，一级导航栏如果没有子节点则为超链接，如果删除一级导航栏，则删除所有对应的二级导航栏</t>
   </si>
 </sst>
 </file>
@@ -742,7 +757,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1143,16 +1158,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="149.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1372,104 +1387,131 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>96</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4"/>
-      <c r="B20" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="4"/>
+      <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>105</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>102</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>100</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4"/>
-      <c r="B23" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="4"/>
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="B24" t="s">
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
         <v>108</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>109</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A22:A23"/>
+  <mergeCells count="7">
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/网站权限文档.xlsx
+++ b/doc/网站权限文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="权限和角色" sheetId="2" r:id="rId1"/>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1160,7 +1160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/doc/网站权限文档.xlsx
+++ b/doc/网站权限文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="权限和角色" sheetId="2" r:id="rId1"/>
@@ -756,15 +756,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1160,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
